--- a/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_Delete_SendMoney.xlsx
+++ b/HBLAutomationWeb/Resources/Feature/InternetBanking/Data/ManageSchedule_Delete_SendMoney.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-9242020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HBL-Automation-10192020\HBLAutomationWeb\Resources\Feature\InternetBanking\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,14 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="75">
   <si>
     <t>Case</t>
   </si>
   <si>
-    <t>As a user I want to verify deleting a scheduled payment</t>
-  </si>
-  <si>
     <t>db_val</t>
   </si>
   <si>
@@ -41,9 +38,6 @@
     <t>account_no</t>
   </si>
   <si>
-    <t>69069109100038</t>
-  </si>
-  <si>
     <t>Your scheduled payments have been cancelled successfully</t>
   </si>
   <si>
@@ -54,13 +48,214 @@
   </si>
   <si>
     <t xml:space="preserve">SELECT TM.IS_DELETED FROM DC_SCHEDULED_TRAN_MASTER TM INNER JOIN DC_FUND_TRANSFER_BENEFICIARY LM ON TM.FUND_TRANSFER_BENEFICIARY_ID = LM.FUND_TRANSFER_BENEFICIARY_ID where TM.CUSTOMER_INFO_ID = (SELECT CI.CUSTOMER_INFO_ID FROM DC_CUSTOMER_INFO CI WHERE CI.CUSTOMER_NAME = '{customer_name}') and LM.ACCOUNT_NO =  '{account_number}' </t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>12527900056501</t>
+  </si>
+  <si>
+    <t>Verify deleting a non scheduled payment Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a already deleted scheduled send money DAILY Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule with all valid details Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule with all valid details iban Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule HBL Acc Daily Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule HBL Acc Weekly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule HBL Acc Fortnightly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule HBL Acc Monthly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule HBL Acc Quarterly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule IBFT Acc Daily Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule IBFT Acc Weekly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule IBFT Acc Fortnightly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule IBFT Acc Monthly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule IBFT Acc Quarterly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule IBFT via IBAN Acc Daily Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule IBFT via IBAN Acc Weekly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule IBFT via IBAN Acc Fortnightly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule IBFT via IBAN Acc Monthly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule IBFT via IBAN Acc Quarterly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule LOAN Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule FCY Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule MONEY CLUB Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule BRANCHLESS Konnect Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule Daily Limit Exceeds on HBL Acc Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule Daily Limit Exceeds on IBFT Acc Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule INSUFFICIENT BALANCE Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule Bene of other HBL Daily Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule Bene of other HBL Weekly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule Bene of other HBL Fortnightly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule Bene of other HBL Monthly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule Bene of other HBL Quarterly Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule FCY USD Daily Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule Account Blocked Daily Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>Verify deleting a send money schedule Branchless Daily Mng_Send_Delete</t>
+  </si>
+  <si>
+    <t>03334900128</t>
+  </si>
+  <si>
+    <t>00147900721001</t>
+  </si>
+  <si>
+    <t>PK50HABB0013227900983503</t>
+  </si>
+  <si>
+    <t>23457913894303</t>
+  </si>
+  <si>
+    <t>08497900068901</t>
+  </si>
+  <si>
+    <t>00277900350711</t>
+  </si>
+  <si>
+    <t>07867901527301</t>
+  </si>
+  <si>
+    <t>07867916249703</t>
+  </si>
+  <si>
+    <t>02800320004636</t>
+  </si>
+  <si>
+    <t>0605060510946074</t>
+  </si>
+  <si>
+    <t>01719020101</t>
+  </si>
+  <si>
+    <t>100605050300201</t>
+  </si>
+  <si>
+    <t>0300777261006679</t>
+  </si>
+  <si>
+    <t>PK27BAHL1083009501262002</t>
+  </si>
+  <si>
+    <t>PK97BAHL1108009500890601</t>
+  </si>
+  <si>
+    <t>PK48BAHL0070009500457801</t>
+  </si>
+  <si>
+    <t>22667230559903</t>
+  </si>
+  <si>
+    <t>23087900855910</t>
+  </si>
+  <si>
+    <t>12497900564101</t>
+  </si>
+  <si>
+    <t>03334900125</t>
+  </si>
+  <si>
+    <t>12757900758503</t>
+  </si>
+  <si>
+    <t>00020000011005730</t>
+  </si>
+  <si>
+    <t>22837900580401</t>
+  </si>
+  <si>
+    <t>07867915677101</t>
+  </si>
+  <si>
+    <t>14900011079803</t>
+  </si>
+  <si>
+    <t>00476001511601</t>
+  </si>
+  <si>
+    <t>09470201056703</t>
+  </si>
+  <si>
+    <t>24460094904501</t>
+  </si>
+  <si>
+    <t>15647900453401</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,6 +268,25 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="MyFontBold"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,9 +309,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,53 +599,752 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="54.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="84" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="255.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75">
+      <c r="B56" s="5"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
